--- a/샘플데이터/BROCOLLI LIKE SAMPLE.xlsx
+++ b/샘플데이터/BROCOLLI LIKE SAMPLE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hooyu\Documents\카카오톡 받은 파일\sql모음\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Team_broccoli\샘플데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>LIKE_NO</t>
   </si>
@@ -36,10 +36,6 @@
   </si>
   <si>
     <t>MEM_NO</t>
-  </si>
-  <si>
-    <t>SEQ_LIKE.NEXTVAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -375,7 +371,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -402,8 +398,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
+      <c r="A2" s="1">
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -416,8 +412,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
+      <c r="A3" s="1">
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -430,8 +426,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
+      <c r="A4" s="1">
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -444,7 +440,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
@@ -458,8 +454,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
+      <c r="A6" s="1">
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -472,8 +468,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
+      <c r="A7" s="1">
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -486,8 +482,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
+      <c r="A8" s="1">
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -500,8 +496,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
+      <c r="A9" s="1">
+        <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -514,8 +510,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
+      <c r="A10" s="1">
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -528,8 +524,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
+      <c r="A11" s="1">
+        <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -542,8 +538,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>4</v>
+      <c r="A12" s="1">
+        <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -556,8 +552,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>4</v>
+      <c r="A13" s="1">
+        <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -570,8 +566,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>4</v>
+      <c r="A14" s="1">
+        <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -584,8 +580,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>4</v>
+      <c r="A15" s="1">
+        <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -598,8 +594,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>4</v>
+      <c r="A16" s="1">
+        <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
@@ -612,8 +608,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>4</v>
+      <c r="A17" s="1">
+        <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
@@ -626,8 +622,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>4</v>
+      <c r="A18" s="1">
+        <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
@@ -640,8 +636,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>4</v>
+      <c r="A19" s="1">
+        <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
@@ -654,8 +650,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>4</v>
+      <c r="A20" s="1">
+        <v>19</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
@@ -668,8 +664,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>4</v>
+      <c r="A21" s="1">
+        <v>20</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -682,8 +678,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>4</v>
+      <c r="A22" s="1">
+        <v>21</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -696,8 +692,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>4</v>
+      <c r="A23" s="1">
+        <v>22</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
@@ -710,8 +706,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>4</v>
+      <c r="A24" s="1">
+        <v>23</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
@@ -724,8 +720,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>4</v>
+      <c r="A25" s="1">
+        <v>24</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
@@ -738,8 +734,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>4</v>
+      <c r="A26" s="1">
+        <v>25</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
@@ -752,8 +748,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>4</v>
+      <c r="A27" s="1">
+        <v>26</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -766,8 +762,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>4</v>
+      <c r="A28" s="1">
+        <v>27</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
@@ -780,8 +776,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>4</v>
+      <c r="A29" s="1">
+        <v>28</v>
       </c>
       <c r="B29" s="1">
         <v>1</v>
@@ -796,5 +792,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>